--- a/Instrumentos/Codigos/FinalData/Results.xlsx
+++ b/Instrumentos/Codigos/FinalData/Results.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aylto\Code\Projects\School\TIS6\Instrumentos\Codigos\FinalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A128E-BD12-41E9-B8C4-3F64FBDDFE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358C51F-DD3C-43E0-B597-2E26C9DAFD80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="1260" windowWidth="18045" windowHeight="13785" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="510" windowWidth="18045" windowHeight="13785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 300" sheetId="5" r:id="rId1"/>
     <sheet name="Top 10" sheetId="3" r:id="rId2"/>
     <sheet name="Middle 10" sheetId="2" r:id="rId3"/>
     <sheet name="Bottom 10" sheetId="1" r:id="rId4"/>
-    <sheet name="ReleasesAndPrs" sheetId="4" r:id="rId5"/>
-    <sheet name="Performance" sheetId="6" r:id="rId6"/>
-    <sheet name="QuestionsAndIssues" sheetId="7" r:id="rId7"/>
+    <sheet name="QuestionsAndIssues" sheetId="7" r:id="rId5"/>
+    <sheet name="ReleasesAndPrs" sheetId="4" r:id="rId6"/>
+    <sheet name="Performance" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Top 300'!$A$1:$F$301</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1193">
   <si>
     <t>Yoshino-UI/Yoshino</t>
   </si>
@@ -2916,13 +2916,709 @@
     <t>Bottom 10</t>
   </si>
   <si>
-    <t>Top 1</t>
-  </si>
-  <si>
-    <t>Middle 1</t>
-  </si>
-  <si>
-    <t>Bottom 1</t>
+    <t>pullRequests</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>ageInYears</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>5.93</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>5.76</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>5.51</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>7.77</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>5.61</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>4.59</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>4.67</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>6.36</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>0.36</t>
   </si>
 </sst>
 </file>
@@ -3778,10 +4474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7E1D88-5B01-4C8D-95AB-5D768A16470B}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B241" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,9 +4486,12 @@
     <col min="3" max="3" width="45.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -3811,13 +4510,22 @@
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
@@ -3831,8 +4539,17 @@
       <c r="F2" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>13142</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13007</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3848,8 +4565,17 @@
       <c r="F3" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>4595</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16380</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3865,8 +4591,17 @@
       <c r="F4" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>3497</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9914</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3882,8 +4617,17 @@
       <c r="F5" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>258</v>
+      </c>
+      <c r="H5" s="1">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3899,8 +4643,17 @@
       <c r="F6" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>1049</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5520</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3916,8 +4669,17 @@
       <c r="F7" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>599</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1041</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3933,8 +4695,17 @@
       <c r="F8" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>796</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1721</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3950,8 +4721,17 @@
       <c r="F9" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>549</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1445</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3967,8 +4747,17 @@
       <c r="F10" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>3241</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5676</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3984,13 +4773,22 @@
       <c r="F11" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>472</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3278</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>68</v>
@@ -4004,8 +4802,17 @@
       <c r="F12" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>1773</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1808</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4021,13 +4828,22 @@
       <c r="F13" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>406</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1223</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>71</v>
@@ -4041,8 +4857,17 @@
       <c r="F14" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>1816</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2388</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4058,13 +4883,22 @@
       <c r="F15" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1">
+        <v>723</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>74</v>
@@ -4078,8 +4912,17 @@
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>10505</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7653</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4095,8 +4938,17 @@
       <c r="F17" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>338</v>
+      </c>
+      <c r="H17" s="1">
+        <v>483</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4112,8 +4964,17 @@
       <c r="F18" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>757</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3042</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4129,8 +4990,17 @@
       <c r="F19" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>181</v>
+      </c>
+      <c r="H19" s="1">
+        <v>590</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4146,13 +5016,22 @@
       <c r="F20" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>337</v>
+      </c>
+      <c r="H20" s="1">
+        <v>475</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
@@ -4166,8 +5045,17 @@
       <c r="F21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>633</v>
+      </c>
+      <c r="H21" s="1">
+        <v>469</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4183,8 +5071,17 @@
       <c r="F22" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>163</v>
+      </c>
+      <c r="H22" s="1">
+        <v>431</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4200,13 +5097,22 @@
       <c r="F23" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1">
+        <v>418</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>80</v>
@@ -4220,8 +5126,17 @@
       <c r="F24" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>3478</v>
+      </c>
+      <c r="H24" s="1">
+        <v>782</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4237,8 +5152,17 @@
       <c r="F25" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>113</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4254,8 +5178,17 @@
       <c r="F26" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>3845</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1636</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4271,8 +5204,17 @@
       <c r="F27" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>1111</v>
+      </c>
+      <c r="H27" s="1">
+        <v>543</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4288,8 +5230,17 @@
       <c r="F28" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1">
+        <v>491</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4305,8 +5256,17 @@
       <c r="F29" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>300</v>
+      </c>
+      <c r="H29" s="1">
+        <v>680</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4322,8 +5282,17 @@
       <c r="F30" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>233</v>
+      </c>
+      <c r="H30" s="1">
+        <v>671</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4339,13 +5308,22 @@
       <c r="F31" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>730</v>
+      </c>
+      <c r="H31" s="1">
+        <v>642</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>83</v>
@@ -4359,8 +5337,17 @@
       <c r="F32" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>1290</v>
+      </c>
+      <c r="H32" s="1">
+        <v>594</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4376,8 +5363,17 @@
       <c r="F33" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>646</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1010</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4393,8 +5389,17 @@
       <c r="F34" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>206</v>
+      </c>
+      <c r="H34" s="1">
+        <v>41</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4410,8 +5415,17 @@
       <c r="F35" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>139</v>
+      </c>
+      <c r="H35" s="1">
+        <v>348</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4427,8 +5441,17 @@
       <c r="F36" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>482</v>
+      </c>
+      <c r="H36" s="1">
+        <v>636</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4444,8 +5467,17 @@
       <c r="F37" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>251</v>
+      </c>
+      <c r="H37" s="1">
+        <v>241</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4461,8 +5493,17 @@
       <c r="F38" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1">
+        <v>382</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4478,8 +5519,17 @@
       <c r="F39" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>147</v>
+      </c>
+      <c r="H39" s="1">
+        <v>472</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4495,8 +5545,17 @@
       <c r="F40" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1">
+        <v>87</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4512,8 +5571,17 @@
       <c r="F41" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1">
+        <v>42</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4529,8 +5597,17 @@
       <c r="F42" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1">
+        <v>37</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4546,8 +5623,17 @@
       <c r="F43" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>53</v>
+      </c>
+      <c r="H43" s="1">
+        <v>374</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4563,8 +5649,17 @@
       <c r="F44" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>51</v>
+      </c>
+      <c r="H44" s="1">
+        <v>80</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4580,8 +5675,17 @@
       <c r="F45" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>104</v>
+      </c>
+      <c r="H45" s="1">
+        <v>357</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4597,8 +5701,17 @@
       <c r="F46" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1">
+        <v>80</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4614,8 +5727,17 @@
       <c r="F47" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>456</v>
+      </c>
+      <c r="H47" s="1">
+        <v>595</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4631,8 +5753,17 @@
       <c r="F48" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>256</v>
+      </c>
+      <c r="H48" s="1">
+        <v>490</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4648,8 +5779,17 @@
       <c r="F49" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1">
+        <v>319</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4665,8 +5805,17 @@
       <c r="F50" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>65</v>
+      </c>
+      <c r="H50" s="1">
+        <v>123</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4682,8 +5831,17 @@
       <c r="F51" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>50</v>
+      </c>
+      <c r="H51" s="1">
+        <v>6</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4699,13 +5857,22 @@
       <c r="F52" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>9</v>
+      </c>
+      <c r="H52" s="1">
+        <v>184</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>86</v>
@@ -4719,8 +5886,17 @@
       <c r="F53" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>105</v>
+      </c>
+      <c r="H53" s="1">
+        <v>223</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4736,8 +5912,17 @@
       <c r="F54" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>148</v>
+      </c>
+      <c r="H54" s="1">
+        <v>60</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4753,8 +5938,17 @@
       <c r="F55" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>136</v>
+      </c>
+      <c r="H55" s="1">
+        <v>450</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4770,8 +5964,17 @@
       <c r="F56" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <v>620</v>
+      </c>
+      <c r="H56" s="1">
+        <v>476</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4787,8 +5990,17 @@
       <c r="F57" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>80</v>
+      </c>
+      <c r="H57" s="1">
+        <v>24</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4804,8 +6016,17 @@
       <c r="F58" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>250</v>
+      </c>
+      <c r="H58" s="1">
+        <v>24</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4821,8 +6042,17 @@
       <c r="F59" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>303</v>
+      </c>
+      <c r="H59" s="1">
+        <v>465</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4838,8 +6068,17 @@
       <c r="F60" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>106</v>
+      </c>
+      <c r="H60" s="1">
+        <v>217</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4855,8 +6094,17 @@
       <c r="F61" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>572</v>
+      </c>
+      <c r="H61" s="1">
+        <v>189</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4872,8 +6120,17 @@
       <c r="F62" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>89</v>
+      </c>
+      <c r="H62" s="1">
+        <v>252</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4889,8 +6146,17 @@
       <c r="F63" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>92</v>
+      </c>
+      <c r="H63" s="1">
+        <v>380</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4906,8 +6172,17 @@
       <c r="F64" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>103</v>
+      </c>
+      <c r="H64" s="1">
+        <v>62</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4923,8 +6198,17 @@
       <c r="F65" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>104</v>
+      </c>
+      <c r="H65" s="1">
+        <v>297</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4940,8 +6224,17 @@
       <c r="F66" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>22</v>
+      </c>
+      <c r="H66" s="1">
+        <v>78</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4957,8 +6250,17 @@
       <c r="F67" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>65</v>
+      </c>
+      <c r="H67" s="1">
+        <v>118</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4974,13 +6276,22 @@
       <c r="F68" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <v>13</v>
+      </c>
+      <c r="H68" s="1">
+        <v>100</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>89</v>
@@ -4994,8 +6305,17 @@
       <c r="F69" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>274</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1771</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5011,8 +6331,17 @@
       <c r="F70" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>69</v>
+      </c>
+      <c r="H70" s="1">
+        <v>12</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5028,8 +6357,17 @@
       <c r="F71" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>40</v>
+      </c>
+      <c r="H71" s="1">
+        <v>60</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5045,8 +6383,17 @@
       <c r="F72" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>143</v>
+      </c>
+      <c r="H72" s="1">
+        <v>215</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5062,8 +6409,17 @@
       <c r="F73" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>103</v>
+      </c>
+      <c r="H73" s="1">
+        <v>716</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5079,8 +6435,17 @@
       <c r="F74" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>331</v>
+      </c>
+      <c r="H74" s="1">
+        <v>84</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5096,8 +6461,17 @@
       <c r="F75" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>128</v>
+      </c>
+      <c r="H75" s="1">
+        <v>269</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5113,8 +6487,17 @@
       <c r="F76" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <v>377</v>
+      </c>
+      <c r="H76" s="1">
+        <v>195</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5130,8 +6513,17 @@
       <c r="F77" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>27</v>
+      </c>
+      <c r="H77" s="1">
+        <v>103</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5147,8 +6539,17 @@
       <c r="F78" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>309</v>
+      </c>
+      <c r="H78" s="1">
+        <v>194</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5164,8 +6565,17 @@
       <c r="F79" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>128</v>
+      </c>
+      <c r="H79" s="1">
+        <v>84</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5181,8 +6591,17 @@
       <c r="F80" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>212</v>
+      </c>
+      <c r="H80" s="1">
+        <v>391</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5198,8 +6617,17 @@
       <c r="F81" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>1885</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1449</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5215,8 +6643,17 @@
       <c r="F82" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>1384</v>
+      </c>
+      <c r="H82" s="1">
+        <v>851</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5232,8 +6669,17 @@
       <c r="F83" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>66</v>
+      </c>
+      <c r="H83" s="1">
+        <v>5</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5249,8 +6695,17 @@
       <c r="F84" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>834</v>
+      </c>
+      <c r="H84" s="1">
+        <v>265</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5266,8 +6721,17 @@
       <c r="F85" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>8</v>
+      </c>
+      <c r="H85" s="1">
+        <v>8</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5283,8 +6747,17 @@
       <c r="F86" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>431</v>
+      </c>
+      <c r="H86" s="1">
+        <v>145</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5300,8 +6773,17 @@
       <c r="F87" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>43</v>
+      </c>
+      <c r="H87" s="1">
+        <v>48</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5317,8 +6799,17 @@
       <c r="F88" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>130</v>
+      </c>
+      <c r="H88" s="1">
+        <v>190</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5334,8 +6825,17 @@
       <c r="F89" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <v>294</v>
+      </c>
+      <c r="H89" s="1">
+        <v>649</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5351,8 +6851,17 @@
       <c r="F90" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>21</v>
+      </c>
+      <c r="H90" s="1">
+        <v>53</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5368,8 +6877,17 @@
       <c r="F91" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>127</v>
+      </c>
+      <c r="H91" s="1">
+        <v>214</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5385,8 +6903,17 @@
       <c r="F92" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <v>605</v>
+      </c>
+      <c r="H92" s="1">
+        <v>130</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5402,8 +6929,17 @@
       <c r="F93" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>122</v>
+      </c>
+      <c r="H93" s="1">
+        <v>136</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5419,8 +6955,17 @@
       <c r="F94" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>90</v>
+      </c>
+      <c r="H94" s="1">
+        <v>43</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5436,13 +6981,22 @@
       <c r="F95" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>64</v>
+      </c>
+      <c r="H95" s="1">
+        <v>68</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>92</v>
@@ -5456,8 +7010,17 @@
       <c r="F96" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <v>41</v>
+      </c>
+      <c r="H96" s="1">
+        <v>83</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5473,8 +7036,17 @@
       <c r="F97" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>14</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5490,8 +7062,17 @@
       <c r="F98" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>19</v>
+      </c>
+      <c r="H98" s="1">
+        <v>14</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5507,8 +7088,17 @@
       <c r="F99" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>6</v>
+      </c>
+      <c r="H99" s="1">
+        <v>42</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5524,13 +7114,22 @@
       <c r="F100" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <v>112</v>
+      </c>
+      <c r="H100" s="1">
+        <v>120</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
@@ -5544,8 +7143,17 @@
       <c r="F101" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="1">
+        <v>133</v>
+      </c>
+      <c r="H101" s="1">
+        <v>193</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5561,8 +7169,17 @@
       <c r="F102" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="1">
+        <v>24</v>
+      </c>
+      <c r="H102" s="1">
+        <v>86</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5578,8 +7195,17 @@
       <c r="F103" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <v>54</v>
+      </c>
+      <c r="H103" s="1">
+        <v>114</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5595,8 +7221,17 @@
       <c r="F104" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="1">
+        <v>15</v>
+      </c>
+      <c r="H104" s="1">
+        <v>40</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5612,8 +7247,17 @@
       <c r="F105" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="1">
+        <v>489</v>
+      </c>
+      <c r="H105" s="1">
+        <v>143</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5629,8 +7273,17 @@
       <c r="F106" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="1">
+        <v>40</v>
+      </c>
+      <c r="H106" s="1">
+        <v>39</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5646,8 +7299,17 @@
       <c r="F107" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="1">
+        <v>28</v>
+      </c>
+      <c r="H107" s="1">
+        <v>194</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5663,8 +7325,17 @@
       <c r="F108" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="1">
+        <v>33</v>
+      </c>
+      <c r="H108" s="1">
+        <v>13</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5680,8 +7351,17 @@
       <c r="F109" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="1">
+        <v>58</v>
+      </c>
+      <c r="H109" s="1">
+        <v>30</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5697,8 +7377,17 @@
       <c r="F110" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="1">
+        <v>17</v>
+      </c>
+      <c r="H110" s="1">
+        <v>55</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5714,8 +7403,17 @@
       <c r="F111" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="1">
+        <v>17</v>
+      </c>
+      <c r="H111" s="1">
+        <v>55</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5731,8 +7429,17 @@
       <c r="F112" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="1">
+        <v>54</v>
+      </c>
+      <c r="H112" s="1">
+        <v>66</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5748,8 +7455,17 @@
       <c r="F113" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="1">
+        <v>24</v>
+      </c>
+      <c r="H113" s="1">
+        <v>65</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5765,8 +7481,17 @@
       <c r="F114" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="1">
+        <v>53</v>
+      </c>
+      <c r="H114" s="1">
+        <v>7</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5782,8 +7507,17 @@
       <c r="F115" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="1">
+        <v>124</v>
+      </c>
+      <c r="H115" s="1">
+        <v>271</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5799,8 +7533,17 @@
       <c r="F116" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="1">
+        <v>17</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5816,8 +7559,17 @@
       <c r="F117" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="1">
+        <v>60</v>
+      </c>
+      <c r="H117" s="1">
+        <v>78</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5833,8 +7585,17 @@
       <c r="F118" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="1">
+        <v>80</v>
+      </c>
+      <c r="H118" s="1">
+        <v>113</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5850,8 +7611,17 @@
       <c r="F119" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="1">
+        <v>48</v>
+      </c>
+      <c r="H119" s="1">
+        <v>140</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5867,8 +7637,17 @@
       <c r="F120" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="1">
+        <v>98</v>
+      </c>
+      <c r="H120" s="1">
+        <v>42</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5884,8 +7663,17 @@
       <c r="F121" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="1">
+        <v>18</v>
+      </c>
+      <c r="H121" s="1">
+        <v>63</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5901,8 +7689,17 @@
       <c r="F122" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="1">
+        <v>31</v>
+      </c>
+      <c r="H122" s="1">
+        <v>80</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5918,8 +7715,17 @@
       <c r="F123" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1">
+        <v>7</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5935,13 +7741,22 @@
       <c r="F124" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <v>6</v>
+      </c>
+      <c r="H124" s="1">
+        <v>9</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>38</v>
@@ -5955,13 +7770,22 @@
       <c r="F125" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <v>406</v>
+      </c>
+      <c r="H125" s="1">
+        <v>270</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>41</v>
@@ -5975,8 +7799,17 @@
       <c r="F126" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <v>785</v>
+      </c>
+      <c r="H126" s="1">
+        <v>162</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5992,8 +7825,17 @@
       <c r="F127" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <v>106</v>
+      </c>
+      <c r="H127" s="1">
+        <v>117</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6009,8 +7851,17 @@
       <c r="F128" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="1">
+        <v>373</v>
+      </c>
+      <c r="H128" s="1">
+        <v>243</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6026,8 +7877,17 @@
       <c r="F129" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="1">
+        <v>38</v>
+      </c>
+      <c r="H129" s="1">
+        <v>31</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6043,8 +7903,17 @@
       <c r="F130" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="1">
+        <v>61</v>
+      </c>
+      <c r="H130" s="1">
+        <v>125</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6060,8 +7929,17 @@
       <c r="F131" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="1">
+        <v>100</v>
+      </c>
+      <c r="H131" s="1">
+        <v>43</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6077,8 +7955,17 @@
       <c r="F132" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="1">
+        <v>14</v>
+      </c>
+      <c r="H132" s="1">
+        <v>24</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6094,8 +7981,17 @@
       <c r="F133" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="1">
+        <v>52</v>
+      </c>
+      <c r="H133" s="1">
+        <v>120</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6111,13 +8007,22 @@
       <c r="F134" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="1">
+        <v>15</v>
+      </c>
+      <c r="H134" s="1">
+        <v>10</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>44</v>
@@ -6131,8 +8036,17 @@
       <c r="F135" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="1">
+        <v>57</v>
+      </c>
+      <c r="H135" s="1">
+        <v>52</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6148,8 +8062,17 @@
       <c r="F136" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="1">
+        <v>13</v>
+      </c>
+      <c r="H136" s="1">
+        <v>67</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6165,13 +8088,22 @@
       <c r="F137" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="1">
+        <v>29</v>
+      </c>
+      <c r="H137" s="1">
+        <v>103</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>47</v>
@@ -6185,8 +8117,17 @@
       <c r="F138" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="1">
+        <v>289</v>
+      </c>
+      <c r="H138" s="1">
+        <v>42</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6202,8 +8143,17 @@
       <c r="F139" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="1">
+        <v>53</v>
+      </c>
+      <c r="H139" s="1">
+        <v>75</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6219,8 +8169,17 @@
       <c r="F140" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="1">
+        <v>33</v>
+      </c>
+      <c r="H140" s="1">
+        <v>115</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6236,8 +8195,17 @@
       <c r="F141" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="1">
+        <v>45</v>
+      </c>
+      <c r="H141" s="1">
+        <v>49</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6253,8 +8221,17 @@
       <c r="F142" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="1">
+        <v>32</v>
+      </c>
+      <c r="H142" s="1">
+        <v>33</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6270,8 +8247,17 @@
       <c r="F143" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="1">
+        <v>125</v>
+      </c>
+      <c r="H143" s="1">
+        <v>127</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6287,8 +8273,17 @@
       <c r="F144" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="1">
+        <v>40</v>
+      </c>
+      <c r="H144" s="1">
+        <v>8</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6304,8 +8299,17 @@
       <c r="F145" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>8</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6321,13 +8325,22 @@
       <c r="F146" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="1">
+        <v>245</v>
+      </c>
+      <c r="H146" s="1">
+        <v>43</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>50</v>
@@ -6341,13 +8354,22 @@
       <c r="F147" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="1">
+        <v>2968</v>
+      </c>
+      <c r="H147" s="1">
+        <v>2753</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>53</v>
@@ -6361,8 +8383,17 @@
       <c r="F148" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="1">
+        <v>18</v>
+      </c>
+      <c r="H148" s="1">
+        <v>16</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6378,8 +8409,17 @@
       <c r="F149" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="1">
+        <v>89</v>
+      </c>
+      <c r="H149" s="1">
+        <v>92</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6395,8 +8435,17 @@
       <c r="F150" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="1">
+        <v>51</v>
+      </c>
+      <c r="H150" s="1">
+        <v>146</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6412,8 +8461,17 @@
       <c r="F151" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="1">
+        <v>218</v>
+      </c>
+      <c r="H151" s="1">
+        <v>29</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6429,8 +8487,17 @@
       <c r="F152" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="1">
+        <v>11</v>
+      </c>
+      <c r="H152" s="1">
+        <v>25</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6446,8 +8513,17 @@
       <c r="F153" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="1">
+        <v>162</v>
+      </c>
+      <c r="H153" s="1">
+        <v>32</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6463,8 +8539,17 @@
       <c r="F154" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="1">
+        <v>36</v>
+      </c>
+      <c r="H154" s="1">
+        <v>25</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6480,8 +8565,17 @@
       <c r="F155" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="1">
+        <v>124</v>
+      </c>
+      <c r="H155" s="1">
+        <v>103</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6497,8 +8591,17 @@
       <c r="F156" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="1">
+        <v>18</v>
+      </c>
+      <c r="H156" s="1">
+        <v>36</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -6514,8 +8617,17 @@
       <c r="F157" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="1">
+        <v>5</v>
+      </c>
+      <c r="H157" s="1">
+        <v>4</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -6531,8 +8643,17 @@
       <c r="F158" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="1">
+        <v>47</v>
+      </c>
+      <c r="H158" s="1">
+        <v>48</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -6548,8 +8669,17 @@
       <c r="F159" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="1">
+        <v>9</v>
+      </c>
+      <c r="H159" s="1">
+        <v>6</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6565,8 +8695,17 @@
       <c r="F160" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="1">
+        <v>77</v>
+      </c>
+      <c r="H160" s="1">
+        <v>119</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6582,8 +8721,17 @@
       <c r="F161" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="1">
+        <v>33</v>
+      </c>
+      <c r="H161" s="1">
+        <v>47</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6599,8 +8747,17 @@
       <c r="F162" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="1">
+        <v>339</v>
+      </c>
+      <c r="H162" s="1">
+        <v>266</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6616,8 +8773,17 @@
       <c r="F163" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="1">
+        <v>130</v>
+      </c>
+      <c r="H163" s="1">
+        <v>24</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6633,13 +8799,22 @@
       <c r="F164" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="1">
+        <v>35</v>
+      </c>
+      <c r="H164" s="1">
+        <v>37</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>56</v>
@@ -6653,8 +8828,17 @@
       <c r="F165" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="1">
+        <v>156</v>
+      </c>
+      <c r="H165" s="1">
+        <v>299</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6670,8 +8854,17 @@
       <c r="F166" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="1">
+        <v>17</v>
+      </c>
+      <c r="H166" s="1">
+        <v>58</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6687,13 +8880,22 @@
       <c r="F167" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="1">
+        <v>831</v>
+      </c>
+      <c r="H167" s="1">
+        <v>910</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>59</v>
@@ -6707,8 +8909,17 @@
       <c r="F168" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="1">
+        <v>37</v>
+      </c>
+      <c r="H168" s="1">
+        <v>44</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6724,8 +8935,17 @@
       <c r="F169" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="1">
+        <v>4</v>
+      </c>
+      <c r="H169" s="1">
+        <v>17</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6741,8 +8961,17 @@
       <c r="F170" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="1">
+        <v>4</v>
+      </c>
+      <c r="H170" s="1">
+        <v>11</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6758,8 +8987,17 @@
       <c r="F171" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="1">
+        <v>38</v>
+      </c>
+      <c r="H171" s="1">
+        <v>31</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6775,8 +9013,17 @@
       <c r="F172" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="1">
+        <v>42</v>
+      </c>
+      <c r="H172" s="1">
+        <v>83</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6792,8 +9039,17 @@
       <c r="F173" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="1">
+        <v>8</v>
+      </c>
+      <c r="H173" s="1">
+        <v>18</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6809,8 +9065,17 @@
       <c r="F174" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="1">
+        <v>108</v>
+      </c>
+      <c r="H174" s="1">
+        <v>55</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6826,8 +9091,17 @@
       <c r="F175" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="1">
+        <v>6</v>
+      </c>
+      <c r="H175" s="1">
+        <v>45</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6843,8 +9117,17 @@
       <c r="F176" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="1">
+        <v>162</v>
+      </c>
+      <c r="H176" s="1">
+        <v>50</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6860,8 +9143,17 @@
       <c r="F177" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="1">
+        <v>105</v>
+      </c>
+      <c r="H177" s="1">
+        <v>130</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6877,13 +9169,22 @@
       <c r="F178" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="1">
+        <v>30</v>
+      </c>
+      <c r="H178" s="1">
+        <v>52</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>62</v>
@@ -6897,8 +9198,17 @@
       <c r="F179" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="1">
+        <v>21</v>
+      </c>
+      <c r="H179" s="1">
+        <v>6</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -6914,8 +9224,17 @@
       <c r="F180" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="1">
+        <v>8</v>
+      </c>
+      <c r="H180" s="1">
+        <v>7</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -6931,8 +9250,17 @@
       <c r="F181" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="1">
+        <v>47</v>
+      </c>
+      <c r="H181" s="1">
+        <v>10</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -6948,8 +9276,17 @@
       <c r="F182" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="1">
+        <v>77</v>
+      </c>
+      <c r="H182" s="1">
+        <v>42</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -6965,8 +9302,17 @@
       <c r="F183" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="1">
+        <v>45</v>
+      </c>
+      <c r="H183" s="1">
+        <v>75</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -6982,8 +9328,17 @@
       <c r="F184" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="1">
+        <v>40</v>
+      </c>
+      <c r="H184" s="1">
+        <v>25</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -6999,8 +9354,17 @@
       <c r="F185" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="1">
+        <v>32</v>
+      </c>
+      <c r="H185" s="1">
+        <v>2</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7016,8 +9380,17 @@
       <c r="F186" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="1">
+        <v>37</v>
+      </c>
+      <c r="H186" s="1">
+        <v>99</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7033,8 +9406,17 @@
       <c r="F187" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="1">
+        <v>44</v>
+      </c>
+      <c r="H187" s="1">
+        <v>46</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7050,8 +9432,17 @@
       <c r="F188" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="1">
+        <v>23</v>
+      </c>
+      <c r="H188" s="1">
+        <v>9</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7067,8 +9458,17 @@
       <c r="F189" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="1">
+        <v>20</v>
+      </c>
+      <c r="H189" s="1">
+        <v>253</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7084,8 +9484,17 @@
       <c r="F190" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="1">
+        <v>48</v>
+      </c>
+      <c r="H190" s="1">
+        <v>105</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7101,8 +9510,17 @@
       <c r="F191" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="1">
+        <v>45</v>
+      </c>
+      <c r="H191" s="1">
+        <v>28</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7118,8 +9536,17 @@
       <c r="F192" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="1">
+        <v>30</v>
+      </c>
+      <c r="H192" s="1">
+        <v>52</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7135,8 +9562,17 @@
       <c r="F193" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="1">
+        <v>73</v>
+      </c>
+      <c r="H193" s="1">
+        <v>230</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7152,8 +9588,17 @@
       <c r="F194" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="1">
+        <v>53</v>
+      </c>
+      <c r="H194" s="1">
+        <v>72</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7169,8 +9614,17 @@
       <c r="F195" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="1">
+        <v>15</v>
+      </c>
+      <c r="H195" s="1">
+        <v>9</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7186,8 +9640,17 @@
       <c r="F196" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="1">
+        <v>57</v>
+      </c>
+      <c r="H196" s="1">
+        <v>15</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7203,8 +9666,17 @@
       <c r="F197" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="1">
+        <v>18</v>
+      </c>
+      <c r="H197" s="1">
+        <v>20</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7220,8 +9692,17 @@
       <c r="F198" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="1">
+        <v>345</v>
+      </c>
+      <c r="H198" s="1">
+        <v>6</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7237,8 +9718,17 @@
       <c r="F199" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="1">
+        <v>39</v>
+      </c>
+      <c r="H199" s="1">
+        <v>6</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7254,8 +9744,17 @@
       <c r="F200" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="1">
+        <v>1030</v>
+      </c>
+      <c r="H200" s="1">
+        <v>337</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7271,8 +9770,17 @@
       <c r="F201" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="1">
+        <v>56</v>
+      </c>
+      <c r="H201" s="1">
+        <v>129</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7288,8 +9796,17 @@
       <c r="F202" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="1">
+        <v>3</v>
+      </c>
+      <c r="H202" s="1">
+        <v>2</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7305,8 +9822,17 @@
       <c r="F203" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="1">
+        <v>39</v>
+      </c>
+      <c r="H203" s="1">
+        <v>43</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7322,8 +9848,17 @@
       <c r="F204" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="1">
+        <v>4</v>
+      </c>
+      <c r="H204" s="1">
+        <v>1</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7339,8 +9874,17 @@
       <c r="F205" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="1">
+        <v>130</v>
+      </c>
+      <c r="H205" s="1">
+        <v>85</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -7356,8 +9900,17 @@
       <c r="F206" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="1">
+        <v>166</v>
+      </c>
+      <c r="H206" s="1">
+        <v>54</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -7373,8 +9926,17 @@
       <c r="F207" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="1">
+        <v>313</v>
+      </c>
+      <c r="H207" s="1">
+        <v>147</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -7390,8 +9952,17 @@
       <c r="F208" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="1">
+        <v>5</v>
+      </c>
+      <c r="H208" s="1">
+        <v>3</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -7407,8 +9978,17 @@
       <c r="F209" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="1">
+        <v>117</v>
+      </c>
+      <c r="H209" s="1">
+        <v>17</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -7424,8 +10004,17 @@
       <c r="F210" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="1">
+        <v>5</v>
+      </c>
+      <c r="H210" s="1">
+        <v>5</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -7441,8 +10030,17 @@
       <c r="F211" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
+      <c r="H211" s="1">
+        <v>1</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -7458,8 +10056,17 @@
       <c r="F212" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="1">
+        <v>70</v>
+      </c>
+      <c r="H212" s="1">
+        <v>47</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -7475,8 +10082,17 @@
       <c r="F213" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="1">
+        <v>23</v>
+      </c>
+      <c r="H213" s="1">
+        <v>27</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -7492,8 +10108,17 @@
       <c r="F214" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="1">
+        <v>3</v>
+      </c>
+      <c r="H214" s="1">
+        <v>12</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -7509,8 +10134,17 @@
       <c r="F215" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="1">
+        <v>2</v>
+      </c>
+      <c r="H215" s="1">
+        <v>5</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -7526,8 +10160,17 @@
       <c r="F216" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="1">
+        <v>33</v>
+      </c>
+      <c r="H216" s="1">
+        <v>45</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -7543,8 +10186,17 @@
       <c r="F217" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>4</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -7560,8 +10212,17 @@
       <c r="F218" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="1">
+        <v>18</v>
+      </c>
+      <c r="H218" s="1">
+        <v>33</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -7577,8 +10238,17 @@
       <c r="F219" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="1">
+        <v>4</v>
+      </c>
+      <c r="H219" s="1">
+        <v>6</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -7594,13 +10264,22 @@
       <c r="F220" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="1">
+        <v>86</v>
+      </c>
+      <c r="H220" s="1">
+        <v>24</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>0</v>
@@ -7614,8 +10293,17 @@
       <c r="F221" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="1">
+        <v>3</v>
+      </c>
+      <c r="H221" s="1">
+        <v>9</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -7631,8 +10319,17 @@
       <c r="F222" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="1">
+        <v>68</v>
+      </c>
+      <c r="H222" s="1">
+        <v>69</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -7648,8 +10345,17 @@
       <c r="F223" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="1">
+        <v>8</v>
+      </c>
+      <c r="H223" s="1">
+        <v>18</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -7665,8 +10371,17 @@
       <c r="F224" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="1">
+        <v>3</v>
+      </c>
+      <c r="H224" s="1">
+        <v>15</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -7682,8 +10397,17 @@
       <c r="F225" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="1">
+        <v>27</v>
+      </c>
+      <c r="H225" s="1">
+        <v>33</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -7699,13 +10423,22 @@
       <c r="F226" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="1">
+        <v>2</v>
+      </c>
+      <c r="H226" s="1">
+        <v>1</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>3</v>
@@ -7719,8 +10452,17 @@
       <c r="F227" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="1">
+        <v>103</v>
+      </c>
+      <c r="H227" s="1">
+        <v>37</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -7736,8 +10478,17 @@
       <c r="F228" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="1">
+        <v>166</v>
+      </c>
+      <c r="H228" s="1">
+        <v>3</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -7753,8 +10504,17 @@
       <c r="F229" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="1">
+        <v>25</v>
+      </c>
+      <c r="H229" s="1">
+        <v>31</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -7770,8 +10530,17 @@
       <c r="F230" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="1">
+        <v>26</v>
+      </c>
+      <c r="H230" s="1">
+        <v>9</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -7787,8 +10556,17 @@
       <c r="F231" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="1">
+        <v>4</v>
+      </c>
+      <c r="H231" s="1">
+        <v>2</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -7804,8 +10582,17 @@
       <c r="F232" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="1">
+        <v>2900</v>
+      </c>
+      <c r="H232" s="1">
+        <v>19</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -7821,8 +10608,17 @@
       <c r="F233" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="1">
+        <v>31</v>
+      </c>
+      <c r="H233" s="1">
+        <v>37</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -7838,13 +10634,22 @@
       <c r="F234" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="1">
+        <v>107</v>
+      </c>
+      <c r="H234" s="1">
+        <v>9</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>6</v>
@@ -7858,8 +10663,17 @@
       <c r="F235" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="1">
+        <v>7</v>
+      </c>
+      <c r="H235" s="1">
+        <v>75</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -7875,8 +10689,17 @@
       <c r="F236" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="1">
+        <v>1852</v>
+      </c>
+      <c r="H236" s="1">
+        <v>1510</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -7892,8 +10715,17 @@
       <c r="F237" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="1">
+        <v>46</v>
+      </c>
+      <c r="H237" s="1">
+        <v>20</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -7909,8 +10741,17 @@
       <c r="F238" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="1">
+        <v>153</v>
+      </c>
+      <c r="H238" s="1">
+        <v>118</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -7926,8 +10767,17 @@
       <c r="F239" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="1">
+        <v>13</v>
+      </c>
+      <c r="H239" s="1">
+        <v>12</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -7943,8 +10793,17 @@
       <c r="F240" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="1">
+        <v>19</v>
+      </c>
+      <c r="H240" s="1">
+        <v>42</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -7960,8 +10819,17 @@
       <c r="F241" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="1">
+        <v>7</v>
+      </c>
+      <c r="H241" s="1">
+        <v>24</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -7977,13 +10845,22 @@
       <c r="F242" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="1">
+        <v>105</v>
+      </c>
+      <c r="H242" s="1">
+        <v>5</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>9</v>
@@ -7997,13 +10874,22 @@
       <c r="F243" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="1">
+        <v>14</v>
+      </c>
+      <c r="H243" s="1">
+        <v>0</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>12</v>
@@ -8017,8 +10903,17 @@
       <c r="F244" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="1">
+        <v>942</v>
+      </c>
+      <c r="H244" s="1">
+        <v>367</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8034,8 +10929,17 @@
       <c r="F245" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="1">
+        <v>38</v>
+      </c>
+      <c r="H245" s="1">
+        <v>40</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8051,8 +10955,17 @@
       <c r="F246" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="1">
+        <v>10</v>
+      </c>
+      <c r="H246" s="1">
+        <v>6</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8068,8 +10981,17 @@
       <c r="F247" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="1">
+        <v>148</v>
+      </c>
+      <c r="H247" s="1">
+        <v>38</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8085,8 +11007,17 @@
       <c r="F248" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="1">
+        <v>0</v>
+      </c>
+      <c r="H248" s="1">
+        <v>3</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8102,8 +11033,17 @@
       <c r="F249" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="1">
+        <v>89</v>
+      </c>
+      <c r="H249" s="1">
+        <v>2</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8119,8 +11059,17 @@
       <c r="F250" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="1">
+        <v>31</v>
+      </c>
+      <c r="H250" s="1">
+        <v>2</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8136,8 +11085,17 @@
       <c r="F251" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="1">
+        <v>18</v>
+      </c>
+      <c r="H251" s="1">
+        <v>12</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -8153,8 +11111,17 @@
       <c r="F252" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="1">
+        <v>20</v>
+      </c>
+      <c r="H252" s="1">
+        <v>21</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -8170,13 +11137,22 @@
       <c r="F253" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="1">
+        <v>26</v>
+      </c>
+      <c r="H253" s="1">
+        <v>1</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>15</v>
@@ -8190,8 +11166,17 @@
       <c r="F254" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="1">
+        <v>862</v>
+      </c>
+      <c r="H254" s="1">
+        <v>109</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -8207,8 +11192,17 @@
       <c r="F255" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="1">
+        <v>3</v>
+      </c>
+      <c r="H255" s="1">
+        <v>24</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -8224,8 +11218,17 @@
       <c r="F256" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="1">
+        <v>28</v>
+      </c>
+      <c r="H256" s="1">
+        <v>26</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -8241,8 +11244,17 @@
       <c r="F257" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="1">
+        <v>10</v>
+      </c>
+      <c r="H257" s="1">
+        <v>16</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -8258,13 +11270,22 @@
       <c r="F258" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="1">
+        <v>2</v>
+      </c>
+      <c r="H258" s="1">
+        <v>9</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>18</v>
@@ -8278,13 +11299,22 @@
       <c r="F259" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="1">
+        <v>1086</v>
+      </c>
+      <c r="H259" s="1">
+        <v>302</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>21</v>
@@ -8298,8 +11328,17 @@
       <c r="F260" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="1">
+        <v>1383</v>
+      </c>
+      <c r="H260" s="1">
+        <v>668</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -8315,8 +11354,17 @@
       <c r="F261" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="1">
+        <v>31</v>
+      </c>
+      <c r="H261" s="1">
+        <v>34</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -8332,8 +11380,17 @@
       <c r="F262" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="1">
+        <v>15</v>
+      </c>
+      <c r="H262" s="1">
+        <v>8</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -8349,8 +11406,17 @@
       <c r="F263" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="1">
+        <v>34</v>
+      </c>
+      <c r="H263" s="1">
+        <v>19</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -8366,8 +11432,17 @@
       <c r="F264" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="1">
+        <v>109</v>
+      </c>
+      <c r="H264" s="1">
+        <v>55</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -8383,8 +11458,17 @@
       <c r="F265" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="1">
+        <v>5</v>
+      </c>
+      <c r="H265" s="1">
+        <v>19</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -8400,8 +11484,17 @@
       <c r="F266" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="1">
+        <v>34</v>
+      </c>
+      <c r="H266" s="1">
+        <v>16</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -8417,8 +11510,17 @@
       <c r="F267" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="1">
+        <v>25</v>
+      </c>
+      <c r="H267" s="1">
+        <v>15</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -8434,8 +11536,17 @@
       <c r="F268" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="1">
+        <v>0</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -8451,8 +11562,17 @@
       <c r="F269" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="1">
+        <v>10</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -8468,8 +11588,17 @@
       <c r="F270" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="1">
+        <v>0</v>
+      </c>
+      <c r="H270" s="1">
+        <v>2</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -8485,8 +11614,17 @@
       <c r="F271" s="1" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" s="1">
+        <v>121</v>
+      </c>
+      <c r="H271" s="1">
+        <v>44</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -8502,8 +11640,17 @@
       <c r="F272" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="1">
+        <v>13</v>
+      </c>
+      <c r="H272" s="1">
+        <v>13</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -8519,8 +11666,17 @@
       <c r="F273" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="1">
+        <v>8</v>
+      </c>
+      <c r="H273" s="1">
+        <v>73</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -8536,8 +11692,17 @@
       <c r="F274" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="1">
+        <v>6</v>
+      </c>
+      <c r="H274" s="1">
+        <v>7</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -8553,8 +11718,17 @@
       <c r="F275" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="1">
+        <v>15</v>
+      </c>
+      <c r="H275" s="1">
+        <v>64</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -8570,8 +11744,17 @@
       <c r="F276" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="1">
+        <v>19</v>
+      </c>
+      <c r="H276" s="1">
+        <v>27</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -8587,8 +11770,17 @@
       <c r="F277" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="1">
+        <v>10</v>
+      </c>
+      <c r="H277" s="1">
+        <v>23</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -8604,8 +11796,17 @@
       <c r="F278" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="1">
+        <v>92</v>
+      </c>
+      <c r="H278" s="1">
+        <v>6</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -8621,8 +11822,17 @@
       <c r="F279" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="1">
+        <v>84</v>
+      </c>
+      <c r="H279" s="1">
+        <v>50</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -8638,8 +11848,17 @@
       <c r="F280" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="1">
+        <v>39</v>
+      </c>
+      <c r="H280" s="1">
+        <v>15</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -8655,8 +11874,17 @@
       <c r="F281" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="1">
+        <v>165</v>
+      </c>
+      <c r="H281" s="1">
+        <v>34</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -8672,13 +11900,22 @@
       <c r="F282" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="1">
+        <v>6</v>
+      </c>
+      <c r="H282" s="1">
+        <v>12</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>24</v>
@@ -8692,8 +11929,17 @@
       <c r="F283" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="1">
+        <v>0</v>
+      </c>
+      <c r="H283" s="1">
+        <v>11</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -8709,8 +11955,17 @@
       <c r="F284" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="1">
+        <v>26</v>
+      </c>
+      <c r="H284" s="1">
+        <v>22</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -8726,8 +11981,17 @@
       <c r="F285" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="1">
+        <v>48</v>
+      </c>
+      <c r="H285" s="1">
+        <v>8</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -8743,8 +12007,17 @@
       <c r="F286" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="1">
+        <v>66</v>
+      </c>
+      <c r="H286" s="1">
+        <v>6</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -8760,8 +12033,17 @@
       <c r="F287" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="1">
+        <v>6</v>
+      </c>
+      <c r="H287" s="1">
+        <v>7</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -8777,8 +12059,17 @@
       <c r="F288" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="1">
+        <v>0</v>
+      </c>
+      <c r="H288" s="1">
+        <v>3</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -8794,8 +12085,17 @@
       <c r="F289" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="1">
+        <v>4</v>
+      </c>
+      <c r="H289" s="1">
+        <v>3</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -8811,8 +12111,17 @@
       <c r="F290" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="1">
+        <v>19</v>
+      </c>
+      <c r="H290" s="1">
+        <v>27</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -8828,8 +12137,17 @@
       <c r="F291" s="1" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="1">
+        <v>16</v>
+      </c>
+      <c r="H291" s="1">
+        <v>9</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -8845,8 +12163,17 @@
       <c r="F292" s="1" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="1">
+        <v>123</v>
+      </c>
+      <c r="H292" s="1">
+        <v>72</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -8862,8 +12189,17 @@
       <c r="F293" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="1">
+        <v>0</v>
+      </c>
+      <c r="H293" s="1">
+        <v>6</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -8879,8 +12215,17 @@
       <c r="F294" s="1" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" s="1">
+        <v>66</v>
+      </c>
+      <c r="H294" s="1">
+        <v>38</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -8896,8 +12241,17 @@
       <c r="F295" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="1">
+        <v>3206</v>
+      </c>
+      <c r="H295" s="1">
+        <v>92</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -8913,8 +12267,17 @@
       <c r="F296" s="1" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" s="1">
+        <v>47</v>
+      </c>
+      <c r="H296" s="1">
+        <v>15</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -8930,8 +12293,17 @@
       <c r="F297" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="1">
+        <v>26</v>
+      </c>
+      <c r="H297" s="1">
+        <v>28</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -8947,8 +12319,17 @@
       <c r="F298" s="1" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="1">
+        <v>10</v>
+      </c>
+      <c r="H298" s="1">
+        <v>20</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -8964,13 +12345,22 @@
       <c r="F299" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="1">
+        <v>5</v>
+      </c>
+      <c r="H299" s="1">
+        <v>5</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>27</v>
@@ -8984,8 +12374,17 @@
       <c r="F300" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="1">
+        <v>0</v>
+      </c>
+      <c r="H300" s="1">
+        <v>3</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -9000,6 +12399,15 @@
       </c>
       <c r="F301" s="1" t="s">
         <v>930</v>
+      </c>
+      <c r="G301" s="1">
+        <v>14</v>
+      </c>
+      <c r="H301" s="1">
+        <v>3</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -9620,10 +13028,1084 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D19D3D-612E-4FEB-BE64-F7048A22DC84}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29.5703125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="I1" t="s">
+        <v>953</v>
+      </c>
+      <c r="J1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1">
+        <v>67849</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12885</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11904</v>
+      </c>
+      <c r="G2" s="1">
+        <v>537</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>IMDIV(F2,E2)</f>
+        <v>0,923864959254948</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(H2=0,0,IMDIV(G2,H2))</f>
+        <v>0,537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17340</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1762</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1535</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I31" si="0">IMDIV(F3,E3)</f>
+        <v>0,87116912599319</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J31" si="1">IF(H3=0,0,IMDIV(G3,H3))</f>
+        <v>0,388888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12227</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2384</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2060</v>
+      </c>
+      <c r="G4" s="1">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1">
+        <v>205</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,864093959731544</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,502439024390244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11250</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7553</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6367</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,842976300807626</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7271</v>
+      </c>
+      <c r="E6" s="1">
+        <v>469</v>
+      </c>
+      <c r="F6" s="1">
+        <v>379</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,808102345415778</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,428571428571429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6304</v>
+      </c>
+      <c r="E7" s="1">
+        <v>777</v>
+      </c>
+      <c r="F7" s="1">
+        <v>575</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,74002574002574</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4535</v>
+      </c>
+      <c r="E8" s="1">
+        <v>556</v>
+      </c>
+      <c r="F8" s="1">
+        <v>356</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,640287769784173</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2767</v>
+      </c>
+      <c r="E9" s="1">
+        <v>223</v>
+      </c>
+      <c r="F9" s="1">
+        <v>128</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,573991031390135</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2618</v>
+      </c>
+      <c r="E10" s="1">
+        <v>472</v>
+      </c>
+      <c r="F10" s="1">
+        <v>207</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,438559322033898</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1980</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1719</v>
+      </c>
+      <c r="F11" s="1">
+        <v>875</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1">
+        <v>58</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,509016870273415</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,517241379310345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1031</v>
+      </c>
+      <c r="E12" s="1">
+        <v>186</v>
+      </c>
+      <c r="F12" s="1">
+        <v>166</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,89247311827957</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1">
+        <v>638</v>
+      </c>
+      <c r="E13" s="1">
+        <v>270</v>
+      </c>
+      <c r="F13" s="1">
+        <v>231</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,855555555555556</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>638</v>
+      </c>
+      <c r="E14" s="1">
+        <v>160</v>
+      </c>
+      <c r="F14" s="1">
+        <v>121</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,75625</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>574</v>
+      </c>
+      <c r="E15" s="1">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,75</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1">
+        <v>539</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,619047619047619</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>464</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2723</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,737421961072347</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1">
+        <v>454</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,4375</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1">
+        <v>380</v>
+      </c>
+      <c r="E19" s="1">
+        <v>299</v>
+      </c>
+      <c r="F19" s="1">
+        <v>177</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,591973244147157</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1">
+        <v>372</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,181818181818182</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1">
+        <v>322</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,388888888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>216</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,222222222222222</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>195</v>
+      </c>
+      <c r="E23" s="1">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,702702702702703</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>173</v>
+      </c>
+      <c r="E24" s="1">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1">
+        <v>62</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,826666666666667</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>154</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>153</v>
+      </c>
+      <c r="E26" s="1">
+        <v>366</v>
+      </c>
+      <c r="F26" s="1">
+        <v>178</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,486338797814208</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>142</v>
+      </c>
+      <c r="E27" s="1">
+        <v>104</v>
+      </c>
+      <c r="F27" s="1">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,730769230769231</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1">
+        <v>139</v>
+      </c>
+      <c r="E28" s="1">
+        <v>302</v>
+      </c>
+      <c r="F28" s="1">
+        <v>191</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,632450331125828</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1">
+        <v>667</v>
+      </c>
+      <c r="F29" s="1">
+        <v>319</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,478260869565217</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>119</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0909090909090909</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>102</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,666666666666667</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E707534-7851-4400-9E48-B14B770DACCE}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -10165,7 +14647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CAE936-3838-4B41-B7D5-BFEAC8D41F4B}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -11457,1077 +15939,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D19D3D-612E-4FEB-BE64-F7048A22DC84}">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="29.5703125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="I1" t="s">
-        <v>953</v>
-      </c>
-      <c r="J1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="1">
-        <v>67849</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12885</v>
-      </c>
-      <c r="F2" s="1">
-        <v>11904</v>
-      </c>
-      <c r="G2" s="1">
-        <v>537</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I2" t="str">
-        <f>IMDIV(F2,E2)</f>
-        <v>0,923864959254948</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(H2=0,0,IMDIV(G2,H2))</f>
-        <v>0,537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1">
-        <v>17340</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1762</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1535</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I31" si="0">IMDIV(F3,E3)</f>
-        <v>0,87116912599319</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J31" si="1">IF(H3=0,0,IMDIV(G3,H3))</f>
-        <v>0,388888888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12227</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2384</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2060</v>
-      </c>
-      <c r="G4" s="1">
-        <v>103</v>
-      </c>
-      <c r="H4" s="1">
-        <v>205</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,864093959731544</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0,502439024390244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11250</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7553</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6367</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,842976300807626</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7271</v>
-      </c>
-      <c r="E6" s="1">
-        <v>469</v>
-      </c>
-      <c r="F6" s="1">
-        <v>379</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,808102345415778</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0,428571428571429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6304</v>
-      </c>
-      <c r="E7" s="1">
-        <v>777</v>
-      </c>
-      <c r="F7" s="1">
-        <v>575</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,74002574002574</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4535</v>
-      </c>
-      <c r="E8" s="1">
-        <v>556</v>
-      </c>
-      <c r="F8" s="1">
-        <v>356</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,640287769784173</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2767</v>
-      </c>
-      <c r="E9" s="1">
-        <v>223</v>
-      </c>
-      <c r="F9" s="1">
-        <v>128</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,573991031390135</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2618</v>
-      </c>
-      <c r="E10" s="1">
-        <v>472</v>
-      </c>
-      <c r="F10" s="1">
-        <v>207</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,438559322033898</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1980</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1719</v>
-      </c>
-      <c r="F11" s="1">
-        <v>875</v>
-      </c>
-      <c r="G11" s="1">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1">
-        <v>58</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,509016870273415</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0,517241379310345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1031</v>
-      </c>
-      <c r="E12" s="1">
-        <v>186</v>
-      </c>
-      <c r="F12" s="1">
-        <v>166</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,89247311827957</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1">
-        <v>638</v>
-      </c>
-      <c r="E13" s="1">
-        <v>270</v>
-      </c>
-      <c r="F13" s="1">
-        <v>231</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,855555555555556</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1">
-        <v>638</v>
-      </c>
-      <c r="E14" s="1">
-        <v>160</v>
-      </c>
-      <c r="F14" s="1">
-        <v>121</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,75625</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1">
-        <v>574</v>
-      </c>
-      <c r="E15" s="1">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1">
-        <v>39</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,75</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1">
-        <v>539</v>
-      </c>
-      <c r="E16" s="1">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,619047619047619</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1">
-        <v>464</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2723</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,737421961072347</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1">
-        <v>454</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,4375</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1">
-        <v>380</v>
-      </c>
-      <c r="E19" s="1">
-        <v>299</v>
-      </c>
-      <c r="F19" s="1">
-        <v>177</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,591973244147157</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1">
-        <v>372</v>
-      </c>
-      <c r="E20" s="1">
-        <v>44</v>
-      </c>
-      <c r="F20" s="1">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,181818181818182</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1">
-        <v>322</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1">
-        <v>18</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0,388888888888889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>216</v>
-      </c>
-      <c r="E22" s="1">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,222222222222222</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>195</v>
-      </c>
-      <c r="E23" s="1">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1">
-        <v>26</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,702702702702703</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1">
-        <v>173</v>
-      </c>
-      <c r="E24" s="1">
-        <v>75</v>
-      </c>
-      <c r="F24" s="1">
-        <v>62</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,826666666666667</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>154</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1">
-        <v>153</v>
-      </c>
-      <c r="E26" s="1">
-        <v>366</v>
-      </c>
-      <c r="F26" s="1">
-        <v>178</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,486338797814208</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1">
-        <v>142</v>
-      </c>
-      <c r="E27" s="1">
-        <v>104</v>
-      </c>
-      <c r="F27" s="1">
-        <v>76</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,730769230769231</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="1">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1">
-        <v>302</v>
-      </c>
-      <c r="F28" s="1">
-        <v>191</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,632450331125828</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1">
-        <v>138</v>
-      </c>
-      <c r="E29" s="1">
-        <v>667</v>
-      </c>
-      <c r="F29" s="1">
-        <v>319</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,478260869565217</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="1">
-        <v>119</v>
-      </c>
-      <c r="E30" s="1">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,0909090909090909</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1">
-        <v>102</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0,666666666666667</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>